--- a/plan/animal.xlsx
+++ b/plan/animal.xlsx
@@ -8,15 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="kr" sheetId="1" r:id="rId1"/>
-    <sheet name="eng" sheetId="2" r:id="rId2"/>
-    <sheet name="jp" sheetId="3" r:id="rId3"/>
+    <sheet name="상점" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="184">
   <si>
     <t>수달</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -398,94 +397,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>400 x 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>400 x 8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>800 x 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>800 x 7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1200 x 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1200 x 6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1600 x 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000 x 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2400 x 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2800 x 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3200 x 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3600 x 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4000 x 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4400 x 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4800 x 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5200 x 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5600 x 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6000 x 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6400 x 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6800 x 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">광고보상 코인이 영구적으로 +200 증가합니다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">광고보상 코인이 영구적으로 +400 증가합니다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">facebook으로 로그인해야 합니다. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -682,15 +593,163 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>18 x 1333</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>광고보상 코인이 영구적으로 +100 증가합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100 x 5</t>
+    <t>보너스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광고보상 코인이 영구적으로 +10 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">광고보상 코인이 영구적으로 +10 증가합니다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 x 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10 x 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10 x 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20 x 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20 x 20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30 x 15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30 x 20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40 x 15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40 x 20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50 x 15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50 x 20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>170 x 141</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>160 x 143</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>160 x 138</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100 x 100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100 x 110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>110 x 110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60 x 34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60 x 50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70 x 58</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70 x 71</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80 x 75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80 x 88</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90 x 89</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90 x 100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120 x 117</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120 x 125</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>130 x 124</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>130 x 130</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140 x 129</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140 x 135</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>150 x 134</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>150 x 140</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돈으로치환</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -757,7 +816,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -780,13 +839,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -819,6 +889,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1121,10 +1194,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1141,7 +1214,7 @@
     <col min="10" max="10" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>79</v>
       </c>
@@ -1152,13 +1225,13 @@
         <v>78</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>89</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>91</v>
@@ -1167,24 +1240,27 @@
         <v>90</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="J1" s="9" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="K1" s="11" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>80</v>
@@ -1193,7 +1269,7 @@
         <v>80</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3" t="s">
@@ -1203,15 +1279,15 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>67</v>
@@ -1227,7 +1303,7 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>25</v>
       </c>
@@ -1247,19 +1323,19 @@
         <v>10</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
@@ -1283,13 +1359,13 @@
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
@@ -1309,17 +1385,17 @@
         <v>100</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>115</v>
+        <v>149</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>33</v>
       </c>
@@ -1343,13 +1419,13 @@
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>29</v>
       </c>
@@ -1369,17 +1445,17 @@
         <v>300</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>30</v>
       </c>
@@ -1403,13 +1479,13 @@
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
@@ -1429,17 +1505,17 @@
         <v>500</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>32</v>
       </c>
@@ -1463,13 +1539,13 @@
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
@@ -1489,15 +1565,17 @@
         <v>700</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="J12" s="10"/>
-    </row>
-    <row r="13" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>34</v>
       </c>
@@ -1521,24 +1599,24 @@
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="E14" s="3">
         <v>11000</v>
@@ -1547,15 +1625,17 @@
         <v>900</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="J14" s="10"/>
-    </row>
-    <row r="15" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>35</v>
       </c>
@@ -1579,13 +1659,13 @@
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>36</v>
       </c>
@@ -1605,13 +1685,15 @@
         <v>2000</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="J16" s="10"/>
+        <v>122</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="17" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
@@ -1637,10 +1719,10 @@
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>104</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
@@ -1663,13 +1745,15 @@
         <v>4000</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="J18" s="10"/>
+        <v>124</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="19" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
@@ -1695,10 +1779,10 @@
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>105</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
@@ -1721,13 +1805,15 @@
         <v>6000</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="J20" s="10"/>
+        <v>126</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="21" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
@@ -1753,10 +1839,10 @@
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>106</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
@@ -1779,13 +1865,15 @@
         <v>8000</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="J22" s="10"/>
+        <v>128</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="23" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
@@ -1811,10 +1899,10 @@
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="J23" s="10" t="s">
-        <v>107</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
@@ -1837,13 +1925,15 @@
         <v>10000</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="J24" s="10"/>
+        <v>130</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="25" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
@@ -1869,10 +1959,10 @@
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>108</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
@@ -1895,13 +1985,15 @@
         <v>12000</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="J26" s="10"/>
+        <v>132</v>
+      </c>
+      <c r="J26" s="10" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="27" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
@@ -1927,24 +2019,24 @@
       </c>
       <c r="H27" s="3"/>
       <c r="I27" s="3" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="J27" s="10" t="s">
-        <v>109</v>
+        <v>175</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="E28" s="3">
         <v>25000</v>
@@ -1953,13 +2045,15 @@
         <v>14000</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="H28" s="3"/>
       <c r="I28" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="J28" s="10"/>
+        <v>134</v>
+      </c>
+      <c r="J28" s="10" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="29" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
@@ -1985,10 +2079,10 @@
       </c>
       <c r="H29" s="7"/>
       <c r="I29" s="3" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="J29" s="10" t="s">
-        <v>110</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
@@ -2011,13 +2105,15 @@
         <v>16000</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="H30" s="7"/>
       <c r="I30" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="J30" s="10"/>
+        <v>136</v>
+      </c>
+      <c r="J30" s="10" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="31" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
@@ -2043,10 +2139,10 @@
       </c>
       <c r="H31" s="7"/>
       <c r="I31" s="3" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="J31" s="10" t="s">
-        <v>111</v>
+        <v>179</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
@@ -2069,13 +2165,15 @@
         <v>18000</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="H32" s="7"/>
       <c r="I32" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="J32" s="10"/>
+        <v>138</v>
+      </c>
+      <c r="J32" s="10" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="33" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
@@ -2101,10 +2199,10 @@
       </c>
       <c r="H33" s="7"/>
       <c r="I33" s="3" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="J33" s="10" t="s">
-        <v>112</v>
+        <v>181</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
@@ -2127,13 +2225,15 @@
         <v>20000</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="H34" s="7"/>
       <c r="I34" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="J34" s="10"/>
+        <v>140</v>
+      </c>
+      <c r="J34" s="10" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="35" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
@@ -2159,10 +2259,10 @@
       </c>
       <c r="H35" s="7"/>
       <c r="I35" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="J35" s="10" t="s">
         <v>163</v>
-      </c>
-      <c r="J35" s="10" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
@@ -2185,13 +2285,15 @@
         <v>22000</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="H36" s="7"/>
       <c r="I36" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="J36" s="10"/>
+        <v>142</v>
+      </c>
+      <c r="J36" s="10" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="37" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
@@ -2217,10 +2319,10 @@
       </c>
       <c r="H37" s="7"/>
       <c r="I37" s="3" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="J37" s="10" t="s">
-        <v>114</v>
+        <v>161</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
@@ -2243,7 +2345,7 @@
         <v>24000</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="H38" s="7"/>
       <c r="I38" s="3"/>
@@ -2278,939 +2380,115 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.25" customWidth="1"/>
-    <col min="2" max="2" width="24.25" customWidth="1"/>
-    <col min="3" max="3" width="17.75" customWidth="1"/>
-    <col min="4" max="4" width="18.125" customWidth="1"/>
-    <col min="5" max="5" width="50.75" customWidth="1"/>
-    <col min="6" max="6" width="23.125" customWidth="1"/>
-    <col min="7" max="7" width="21.25" customWidth="1"/>
-    <col min="8" max="8" width="23.25" customWidth="1"/>
+    <col min="2" max="2" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.99</v>
+      </c>
+      <c r="C2">
+        <v>5000</v>
+      </c>
+      <c r="E2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="3">
+      <c r="B3">
+        <v>4.99</v>
+      </c>
+      <c r="C3">
+        <v>25000</v>
+      </c>
+      <c r="D3">
         <v>1000</v>
       </c>
-      <c r="D4" s="3">
-        <v>10</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="3">
-        <v>2000</v>
-      </c>
-      <c r="D5" s="3">
-        <v>50</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" s="3">
-        <v>3000</v>
-      </c>
-      <c r="D6" s="3">
-        <v>100</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="3">
-        <v>4000</v>
-      </c>
-      <c r="D7" s="3">
-        <v>200</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="E3">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>9.99</v>
+      </c>
+      <c r="C4">
+        <v>50000</v>
+      </c>
+      <c r="D4">
+        <v>5000</v>
+      </c>
+      <c r="E4">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="3">
-        <v>5000</v>
-      </c>
-      <c r="D8" s="3">
-        <v>300</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" s="3">
-        <v>6000</v>
-      </c>
-      <c r="D9" s="3">
-        <v>400</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="3">
-        <v>7000</v>
-      </c>
-      <c r="D10" s="3">
-        <v>500</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="3">
-        <v>8000</v>
-      </c>
-      <c r="D11" s="3">
-        <v>600</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="3">
-        <v>9000</v>
-      </c>
-      <c r="D12" s="3">
-        <v>700</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="H12" s="10"/>
-    </row>
-    <row r="13" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="3">
-        <v>10000</v>
-      </c>
-      <c r="D13" s="3">
-        <v>800</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C14" s="3">
-        <v>11000</v>
-      </c>
-      <c r="D14" s="3">
-        <v>900</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="H14" s="10"/>
-    </row>
-    <row r="15" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="3">
-        <v>12000</v>
-      </c>
-      <c r="D15" s="3">
-        <v>1000</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C16" s="3">
-        <v>13000</v>
-      </c>
-      <c r="D16" s="3">
-        <v>2000</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H16" s="10"/>
-    </row>
-    <row r="17" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C17" s="3">
-        <v>14000</v>
-      </c>
-      <c r="D17" s="3">
-        <v>3000</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18" s="3">
-        <v>15000</v>
-      </c>
-      <c r="D18" s="3">
-        <v>4000</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="H18" s="10"/>
-    </row>
-    <row r="19" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C19" s="3">
-        <v>16000</v>
-      </c>
-      <c r="D19" s="3">
-        <v>5000</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="3">
-        <v>17000</v>
-      </c>
-      <c r="D20" s="3">
-        <v>6000</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="H20" s="10"/>
-    </row>
-    <row r="21" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="3">
-        <v>18000</v>
-      </c>
-      <c r="D21" s="3">
-        <v>7000</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="H21" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
+      <c r="B5">
+        <v>20.99</v>
+      </c>
+      <c r="C5">
+        <v>100000</v>
+      </c>
+      <c r="D5">
+        <v>25000</v>
+      </c>
+      <c r="E5">
+        <v>125000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="3">
-        <v>19000</v>
-      </c>
-      <c r="D22" s="3">
-        <v>8000</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="H22" s="10"/>
-    </row>
-    <row r="23" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C23" s="3">
-        <v>20000</v>
-      </c>
-      <c r="D23" s="3">
-        <v>9000</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="H23" s="10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="3">
-        <v>21000</v>
-      </c>
-      <c r="D24" s="3">
-        <v>10000</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="H24" s="10"/>
-    </row>
-    <row r="25" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="3">
-        <v>22000</v>
-      </c>
-      <c r="D25" s="3">
-        <v>11000</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="H25" s="10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C26" s="3">
-        <v>23000</v>
-      </c>
-      <c r="D26" s="3">
-        <v>12000</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="H26" s="10"/>
-    </row>
-    <row r="27" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C27" s="3">
-        <v>24000</v>
-      </c>
-      <c r="D27" s="3">
-        <v>13000</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="H27" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C28" s="3">
-        <v>25000</v>
-      </c>
-      <c r="D28" s="3">
-        <v>14000</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="H28" s="10"/>
-    </row>
-    <row r="29" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" s="3">
-        <v>26000</v>
-      </c>
-      <c r="D29" s="3">
-        <v>15000</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F29" s="7"/>
-      <c r="G29" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="H29" s="10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A30" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C30" s="3">
-        <v>27000</v>
-      </c>
-      <c r="D30" s="3">
-        <v>16000</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F30" s="7"/>
-      <c r="G30" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="H30" s="10"/>
-    </row>
-    <row r="31" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C31" s="3">
-        <v>28000</v>
-      </c>
-      <c r="D31" s="3">
-        <v>17000</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F31" s="7"/>
-      <c r="G31" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="H31" s="10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A32" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="3">
-        <v>29000</v>
-      </c>
-      <c r="D32" s="3">
-        <v>18000</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F32" s="7"/>
-      <c r="G32" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="H32" s="10"/>
-    </row>
-    <row r="33" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A33" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C33" s="3">
-        <v>30000</v>
-      </c>
-      <c r="D33" s="3">
-        <v>19000</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F33" s="7"/>
-      <c r="G33" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="H33" s="10" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A34" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C34" s="3">
-        <v>31000</v>
-      </c>
-      <c r="D34" s="3">
-        <v>20000</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F34" s="7"/>
-      <c r="G34" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="H34" s="10"/>
-    </row>
-    <row r="35" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A35" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C35" s="3">
-        <v>32000</v>
-      </c>
-      <c r="D35" s="3">
-        <v>21000</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F35" s="7"/>
-      <c r="G35" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="H35" s="10" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A36" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C36" s="3">
-        <v>33000</v>
-      </c>
-      <c r="D36" s="3">
-        <v>22000</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F36" s="7"/>
-      <c r="G36" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="H36" s="10"/>
-    </row>
-    <row r="37" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A37" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C37" s="3">
-        <v>34000</v>
-      </c>
-      <c r="D37" s="3">
-        <v>23000</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F37" s="7"/>
-      <c r="G37" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="H37" s="10" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A38" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C38" s="3">
-        <v>35000</v>
-      </c>
-      <c r="D38" s="3">
-        <v>24000</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F38" s="7"/>
-      <c r="G38" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="H38" s="10"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7">
-        <f>SUM(C4:C38)</f>
-        <v>630000</v>
-      </c>
-      <c r="D39" s="7">
-        <f>SUM(D4:D38)</f>
-        <v>304560</v>
-      </c>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
+      <c r="B6">
+        <v>39.99</v>
+      </c>
+      <c r="C6">
+        <v>200000</v>
+      </c>
+      <c r="D6">
+        <v>50000</v>
+      </c>
+      <c r="E6">
+        <v>250000</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/plan/animal.xlsx
+++ b/plan/animal.xlsx
@@ -4,18 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="28035" windowHeight="12555"/>
+    <workbookView xWindow="360" yWindow="60" windowWidth="28035" windowHeight="12555" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="kr" sheetId="1" r:id="rId1"/>
-    <sheet name="상점" sheetId="3" r:id="rId2"/>
+    <sheet name="1차수정" sheetId="1" r:id="rId1"/>
+    <sheet name="2차수정" sheetId="4" r:id="rId2"/>
+    <sheet name="상점1차" sheetId="3" r:id="rId3"/>
+    <sheet name="상점2차" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="189">
   <si>
     <t>수달</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -750,6 +752,26 @@
   </si>
   <si>
     <t>돈으로치환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>획득 조건 수정2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>획득량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>횟수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -757,7 +779,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -784,6 +806,14 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -856,7 +886,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -892,6 +922,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1196,8 +1235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1206,8 +1245,8 @@
     <col min="2" max="2" width="22.875" customWidth="1"/>
     <col min="3" max="3" width="16.125" customWidth="1"/>
     <col min="4" max="4" width="19.375" customWidth="1"/>
-    <col min="5" max="5" width="16.25" customWidth="1"/>
-    <col min="6" max="6" width="15.25" customWidth="1"/>
+    <col min="5" max="5" width="15.25" customWidth="1"/>
+    <col min="6" max="6" width="15.375" customWidth="1"/>
     <col min="7" max="7" width="54.375" customWidth="1"/>
     <col min="8" max="8" width="15.5" customWidth="1"/>
     <col min="9" max="9" width="16.5" customWidth="1"/>
@@ -2380,10 +2419,999 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.125" customWidth="1"/>
+    <col min="3" max="3" width="19.125" customWidth="1"/>
+    <col min="4" max="4" width="13.875" customWidth="1"/>
+    <col min="5" max="5" width="30.375" customWidth="1"/>
+    <col min="6" max="6" width="20.625" customWidth="1"/>
+    <col min="7" max="7" width="14.125" customWidth="1"/>
+    <col min="8" max="8" width="16.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+    </row>
+    <row r="2" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+    </row>
+    <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3">
+        <v>3300</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F4" s="13">
+        <v>110</v>
+      </c>
+      <c r="G4" s="13">
+        <v>30</v>
+      </c>
+      <c r="H4" s="13">
+        <f>F4*G4</f>
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3">
+        <v>6050</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="13">
+        <v>110</v>
+      </c>
+      <c r="G5" s="13">
+        <v>55</v>
+      </c>
+      <c r="H5" s="14">
+        <f>F5*G5</f>
+        <v>6050</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="3">
+        <v>7200</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="13">
+        <v>120</v>
+      </c>
+      <c r="G6" s="13">
+        <v>60</v>
+      </c>
+      <c r="H6" s="13">
+        <f t="shared" ref="H6:H38" si="0">F6*G6</f>
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="3">
+        <v>7200</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="13">
+        <v>120</v>
+      </c>
+      <c r="G7" s="13">
+        <v>60</v>
+      </c>
+      <c r="H7" s="13">
+        <f t="shared" si="0"/>
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3">
+        <v>8450</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="13">
+        <v>130</v>
+      </c>
+      <c r="G8" s="13">
+        <v>65</v>
+      </c>
+      <c r="H8" s="13">
+        <f t="shared" si="0"/>
+        <v>8450</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="3">
+        <v>8450</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="13">
+        <v>130</v>
+      </c>
+      <c r="G9" s="13">
+        <v>65</v>
+      </c>
+      <c r="H9" s="13">
+        <f t="shared" si="0"/>
+        <v>8450</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="3">
+        <v>9800</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="13">
+        <v>140</v>
+      </c>
+      <c r="G10" s="13">
+        <v>70</v>
+      </c>
+      <c r="H10" s="13">
+        <f t="shared" si="0"/>
+        <v>9800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="3">
+        <v>9800</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="13">
+        <v>140</v>
+      </c>
+      <c r="G11" s="13">
+        <v>70</v>
+      </c>
+      <c r="H11" s="13">
+        <f t="shared" si="0"/>
+        <v>9800</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>11250</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="13">
+        <v>150</v>
+      </c>
+      <c r="G12" s="13">
+        <v>75</v>
+      </c>
+      <c r="H12" s="13">
+        <f t="shared" si="0"/>
+        <v>11250</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="3">
+        <v>11250</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="13">
+        <v>150</v>
+      </c>
+      <c r="G13" s="13">
+        <v>75</v>
+      </c>
+      <c r="H13" s="13">
+        <f t="shared" si="0"/>
+        <v>11250</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" s="3">
+        <v>12800</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="13">
+        <v>160</v>
+      </c>
+      <c r="G14" s="13">
+        <v>80</v>
+      </c>
+      <c r="H14" s="13">
+        <f t="shared" si="0"/>
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="3">
+        <v>12800</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="13">
+        <v>160</v>
+      </c>
+      <c r="G15" s="13">
+        <v>80</v>
+      </c>
+      <c r="H15" s="13">
+        <f t="shared" si="0"/>
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="3">
+        <v>14450</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="13">
+        <v>170</v>
+      </c>
+      <c r="G16" s="13">
+        <v>85</v>
+      </c>
+      <c r="H16" s="13">
+        <f t="shared" si="0"/>
+        <v>14450</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="3">
+        <v>14450</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="13">
+        <v>170</v>
+      </c>
+      <c r="G17" s="13">
+        <v>85</v>
+      </c>
+      <c r="H17" s="13">
+        <f t="shared" si="0"/>
+        <v>14450</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="3">
+        <v>16200</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="13">
+        <v>180</v>
+      </c>
+      <c r="G18" s="13">
+        <v>90</v>
+      </c>
+      <c r="H18" s="13">
+        <f t="shared" si="0"/>
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="3">
+        <v>16200</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="13">
+        <v>180</v>
+      </c>
+      <c r="G19" s="13">
+        <v>90</v>
+      </c>
+      <c r="H19" s="13">
+        <f t="shared" si="0"/>
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="3">
+        <v>18050</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="13">
+        <v>190</v>
+      </c>
+      <c r="G20" s="13">
+        <v>95</v>
+      </c>
+      <c r="H20" s="13">
+        <f t="shared" si="0"/>
+        <v>18050</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="3">
+        <v>18050</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="13">
+        <v>190</v>
+      </c>
+      <c r="G21" s="13">
+        <v>95</v>
+      </c>
+      <c r="H21" s="13">
+        <f t="shared" si="0"/>
+        <v>18050</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="3">
+        <v>20000</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="13">
+        <v>200</v>
+      </c>
+      <c r="G22" s="13">
+        <v>100</v>
+      </c>
+      <c r="H22" s="13">
+        <f t="shared" si="0"/>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="3">
+        <v>20000</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="13">
+        <v>200</v>
+      </c>
+      <c r="G23" s="13">
+        <v>100</v>
+      </c>
+      <c r="H23" s="13">
+        <f t="shared" si="0"/>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="3">
+        <v>21000</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="13">
+        <v>210</v>
+      </c>
+      <c r="G24" s="13">
+        <v>100</v>
+      </c>
+      <c r="H24" s="13">
+        <f t="shared" si="0"/>
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="3">
+        <v>21000</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="13">
+        <v>210</v>
+      </c>
+      <c r="G25" s="13">
+        <v>100</v>
+      </c>
+      <c r="H25" s="13">
+        <f t="shared" si="0"/>
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="3">
+        <v>22000</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="13">
+        <v>220</v>
+      </c>
+      <c r="G26" s="13">
+        <v>100</v>
+      </c>
+      <c r="H26" s="13">
+        <f t="shared" si="0"/>
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="3">
+        <v>23100</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="13">
+        <v>220</v>
+      </c>
+      <c r="G27" s="13">
+        <v>105</v>
+      </c>
+      <c r="H27" s="13">
+        <f t="shared" si="0"/>
+        <v>23100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" s="3">
+        <v>24150</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="13">
+        <v>230</v>
+      </c>
+      <c r="G28" s="13">
+        <v>105</v>
+      </c>
+      <c r="H28" s="13">
+        <f t="shared" si="0"/>
+        <v>24150</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3">
+        <v>24150</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E29" s="7"/>
+      <c r="F29" s="13">
+        <v>230</v>
+      </c>
+      <c r="G29" s="13">
+        <v>105</v>
+      </c>
+      <c r="H29" s="13">
+        <f t="shared" si="0"/>
+        <v>24150</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="3">
+        <v>25200</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E30" s="7"/>
+      <c r="F30" s="13">
+        <v>240</v>
+      </c>
+      <c r="G30" s="13">
+        <v>105</v>
+      </c>
+      <c r="H30" s="13">
+        <f t="shared" si="0"/>
+        <v>25200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="3">
+        <v>25200</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E31" s="7"/>
+      <c r="F31" s="13">
+        <v>240</v>
+      </c>
+      <c r="G31" s="13">
+        <v>105</v>
+      </c>
+      <c r="H31" s="13">
+        <f t="shared" si="0"/>
+        <v>25200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="3">
+        <v>27500</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E32" s="7"/>
+      <c r="F32" s="13">
+        <v>250</v>
+      </c>
+      <c r="G32" s="13">
+        <v>110</v>
+      </c>
+      <c r="H32" s="13">
+        <f t="shared" si="0"/>
+        <v>27500</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="3">
+        <v>27500</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E33" s="7"/>
+      <c r="F33" s="13">
+        <v>250</v>
+      </c>
+      <c r="G33" s="13">
+        <v>110</v>
+      </c>
+      <c r="H33" s="13">
+        <f t="shared" si="0"/>
+        <v>27500</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" s="3">
+        <v>28600</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E34" s="7"/>
+      <c r="F34" s="13">
+        <v>260</v>
+      </c>
+      <c r="G34" s="13">
+        <v>110</v>
+      </c>
+      <c r="H34" s="13">
+        <f t="shared" si="0"/>
+        <v>28600</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" s="3">
+        <v>28600</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E35" s="7"/>
+      <c r="F35" s="13">
+        <v>260</v>
+      </c>
+      <c r="G35" s="13">
+        <v>110</v>
+      </c>
+      <c r="H35" s="13">
+        <f t="shared" si="0"/>
+        <v>28600</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="3">
+        <v>29700</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E36" s="7"/>
+      <c r="F36" s="13">
+        <v>270</v>
+      </c>
+      <c r="G36" s="13">
+        <v>110</v>
+      </c>
+      <c r="H36" s="13">
+        <f t="shared" si="0"/>
+        <v>29700</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" s="3">
+        <v>29700</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E37" s="7"/>
+      <c r="F37" s="13">
+        <v>270</v>
+      </c>
+      <c r="G37" s="13">
+        <v>110</v>
+      </c>
+      <c r="H37" s="13">
+        <f t="shared" si="0"/>
+        <v>29700</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" s="3">
+        <v>30800</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E38" s="7"/>
+      <c r="F38" s="13">
+        <v>280</v>
+      </c>
+      <c r="G38" s="13">
+        <v>110</v>
+      </c>
+      <c r="H38" s="13">
+        <f t="shared" si="0"/>
+        <v>30800</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7">
+        <f>SUM(C4:C38)</f>
+        <v>633950</v>
+      </c>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7">
+        <f>SUM(F4:F38)</f>
+        <v>6740</v>
+      </c>
+      <c r="G39" s="7">
+        <f>SUM(G4:G38)</f>
+        <v>3120</v>
+      </c>
+      <c r="H39" s="13">
+        <f>SUM(H4:H38)</f>
+        <v>633950</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection sqref="A1:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2491,4 +3519,134 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.99</v>
+      </c>
+      <c r="C2">
+        <v>12000</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>4.99</v>
+      </c>
+      <c r="C3">
+        <v>60000</v>
+      </c>
+      <c r="D3">
+        <v>6000</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>66000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>9.99</v>
+      </c>
+      <c r="C4">
+        <v>120000</v>
+      </c>
+      <c r="D4">
+        <v>18000</v>
+      </c>
+      <c r="E4">
+        <v>15</v>
+      </c>
+      <c r="F4">
+        <v>138000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>20.99</v>
+      </c>
+      <c r="C5">
+        <v>250000</v>
+      </c>
+      <c r="D5">
+        <v>50000</v>
+      </c>
+      <c r="E5">
+        <v>20</v>
+      </c>
+      <c r="F5">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>39.99</v>
+      </c>
+      <c r="C6">
+        <v>500000</v>
+      </c>
+      <c r="D6">
+        <v>125000</v>
+      </c>
+      <c r="E6">
+        <v>25</v>
+      </c>
+      <c r="F6">
+        <v>625000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/plan/animal.xlsx
+++ b/plan/animal.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="60" windowWidth="28035" windowHeight="12555" activeTab="1"/>
@@ -12,12 +12,12 @@
     <sheet name="상점1차" sheetId="3" r:id="rId3"/>
     <sheet name="상점2차" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="190">
   <si>
     <t>수달</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -772,6 +772,10 @@
   </si>
   <si>
     <t>%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광고획득량</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -886,7 +890,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -931,6 +935,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2419,24 +2426,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="13.125" customWidth="1"/>
     <col min="3" max="3" width="19.125" customWidth="1"/>
-    <col min="4" max="4" width="13.875" customWidth="1"/>
+    <col min="4" max="4" width="46.75" customWidth="1"/>
     <col min="5" max="5" width="30.375" customWidth="1"/>
     <col min="6" max="6" width="20.625" customWidth="1"/>
     <col min="7" max="7" width="14.125" customWidth="1"/>
     <col min="8" max="8" width="16.25" customWidth="1"/>
+    <col min="9" max="9" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>79</v>
       </c>
@@ -2458,7 +2466,7 @@
       <c r="G1" s="9"/>
       <c r="H1" s="9"/>
     </row>
-    <row r="2" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>100</v>
       </c>
@@ -2481,8 +2489,11 @@
       <c r="H2" s="12" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="I2" s="15" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
@@ -2498,7 +2509,7 @@
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
     </row>
-    <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>25</v>
       </c>
@@ -2524,8 +2535,11 @@
         <f>F4*G4</f>
         <v>3300</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="I4">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
@@ -2549,8 +2563,11 @@
         <f>F5*G5</f>
         <v>6050</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="I5">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
@@ -2574,8 +2591,11 @@
         <f t="shared" ref="H6:H38" si="0">F6*G6</f>
         <v>7200</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="I6">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>33</v>
       </c>
@@ -2599,8 +2619,11 @@
         <f t="shared" si="0"/>
         <v>7200</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="I7">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>29</v>
       </c>
@@ -2624,8 +2647,11 @@
         <f t="shared" si="0"/>
         <v>8450</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="I8">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>30</v>
       </c>
@@ -2649,8 +2675,11 @@
         <f t="shared" si="0"/>
         <v>8450</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="I9">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
@@ -2674,8 +2703,11 @@
         <f t="shared" si="0"/>
         <v>9800</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="I10">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>32</v>
       </c>
@@ -2699,8 +2731,11 @@
         <f t="shared" si="0"/>
         <v>9800</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="I11">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
@@ -2724,8 +2759,11 @@
         <f t="shared" si="0"/>
         <v>11250</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="I12">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>34</v>
       </c>
@@ -2749,8 +2787,11 @@
         <f t="shared" si="0"/>
         <v>11250</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="I13">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>101</v>
       </c>
@@ -2774,8 +2815,11 @@
         <f t="shared" si="0"/>
         <v>12800</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="I14">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>35</v>
       </c>
@@ -2799,8 +2843,11 @@
         <f t="shared" si="0"/>
         <v>12800</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="I15">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>36</v>
       </c>
@@ -2824,8 +2871,11 @@
         <f t="shared" si="0"/>
         <v>14450</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="I16">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>37</v>
       </c>
@@ -2849,8 +2899,11 @@
         <f t="shared" si="0"/>
         <v>14450</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="I17">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>38</v>
       </c>
@@ -2874,8 +2927,11 @@
         <f t="shared" si="0"/>
         <v>16200</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="I18">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>39</v>
       </c>
@@ -2899,8 +2955,11 @@
         <f t="shared" si="0"/>
         <v>16200</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="I19">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>40</v>
       </c>
@@ -2924,8 +2983,11 @@
         <f t="shared" si="0"/>
         <v>18050</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="I20">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>47</v>
       </c>
@@ -2949,8 +3011,11 @@
         <f t="shared" si="0"/>
         <v>18050</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="I21">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>41</v>
       </c>
@@ -2974,8 +3039,11 @@
         <f t="shared" si="0"/>
         <v>20000</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="I22">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
@@ -2999,8 +3067,11 @@
         <f t="shared" si="0"/>
         <v>20000</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="I23">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>43</v>
       </c>
@@ -3024,8 +3095,11 @@
         <f t="shared" si="0"/>
         <v>21000</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="I24">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,8 +3123,11 @@
         <f t="shared" si="0"/>
         <v>21000</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="I25">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>45</v>
       </c>
@@ -3074,8 +3151,11 @@
         <f t="shared" si="0"/>
         <v>22000</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="I26">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>46</v>
       </c>
@@ -3099,8 +3179,11 @@
         <f t="shared" si="0"/>
         <v>23100</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="I27">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>102</v>
       </c>
@@ -3124,8 +3207,11 @@
         <f t="shared" si="0"/>
         <v>24150</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="I28">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>49</v>
       </c>
@@ -3149,8 +3235,11 @@
         <f t="shared" si="0"/>
         <v>24150</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="I29">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>50</v>
       </c>
@@ -3174,8 +3263,11 @@
         <f t="shared" si="0"/>
         <v>25200</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="I30">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>57</v>
       </c>
@@ -3199,8 +3291,11 @@
         <f t="shared" si="0"/>
         <v>25200</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="I31">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>48</v>
       </c>
@@ -3224,8 +3319,11 @@
         <f t="shared" si="0"/>
         <v>27500</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="I32">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>52</v>
       </c>
@@ -3249,8 +3347,11 @@
         <f t="shared" si="0"/>
         <v>27500</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="I33">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>51</v>
       </c>
@@ -3274,8 +3375,11 @@
         <f t="shared" si="0"/>
         <v>28600</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="I34">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>59</v>
       </c>
@@ -3299,8 +3403,11 @@
         <f t="shared" si="0"/>
         <v>28600</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="I35">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>53</v>
       </c>
@@ -3324,8 +3431,11 @@
         <f t="shared" si="0"/>
         <v>29700</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="I36">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>54</v>
       </c>
@@ -3349,8 +3459,11 @@
         <f t="shared" si="0"/>
         <v>29700</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="I37">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>55</v>
       </c>
@@ -3374,8 +3487,11 @@
         <f t="shared" si="0"/>
         <v>30800</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="I38">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>60</v>
       </c>
@@ -3397,6 +3513,9 @@
       <c r="H39" s="13">
         <f>SUM(H4:H38)</f>
         <v>633950</v>
+      </c>
+      <c r="I39">
+        <v>2900</v>
       </c>
     </row>
   </sheetData>
